--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/my-life-game/data/zh-cn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435DC0D8-80F9-644E-A314-8B18CBB2505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C670578-2A50-9C46-B4FC-7EFD8FD11B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -196,13 +196,23 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-在分配属性时不影响，玩家开始人生之后才加上</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在分配属性时不影响，玩家开始人生之后才加上</t>
         </r>
       </text>
     </comment>
@@ -211,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="785">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1918,9 +1928,6 @@
     <t>高瞻远瞩</t>
   </si>
   <si>
-    <t>苍兰轨迹</t>
-  </si>
-  <si>
     <t>心</t>
   </si>
   <si>
@@ -2843,13 +2850,16 @@
   </si>
   <si>
     <t>3062</t>
+  </si>
+  <si>
+    <t>苍蓝轨迹</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2876,21 +2886,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2973,10 +2968,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2991,7 +2986,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3277,10 +3272,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AS193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AU266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW202" sqref="AW202"/>
+      <selection pane="bottomRight" activeCell="AX277" sqref="AX277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3308,7 +3303,7 @@
         <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>184</v>
@@ -3681,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -3764,7 +3759,7 @@
         <v>459</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3838,7 +3833,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>440</v>
@@ -3858,10 +3853,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3887,7 +3882,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3901,10 +3896,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3927,7 +3922,7 @@
         <v>461</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3947,10 +3942,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3973,7 +3968,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -3987,7 +3982,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>133</v>
@@ -4004,10 +3999,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4165,7 +4160,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>141</v>
@@ -4252,7 +4247,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>162</v>
@@ -4269,16 +4264,16 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -4397,7 +4392,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>153</v>
@@ -4471,10 +4466,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4505,7 +4500,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -4524,7 +4519,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>472</v>
@@ -4561,7 +4556,7 @@
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4578,7 +4573,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4614,7 +4609,7 @@
         <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4628,10 +4623,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -4654,7 +4649,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
@@ -4677,7 +4672,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
@@ -4700,7 +4695,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>441</v>
@@ -4726,7 +4721,7 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>442</v>
@@ -4749,7 +4744,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>443</v>
@@ -5003,10 +4998,10 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -5023,7 +5018,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>192</v>
@@ -5040,13 +5035,13 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -5089,7 +5084,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>194</v>
@@ -5135,7 +5130,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>446</v>
@@ -5158,10 +5153,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -5175,10 +5170,10 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>476</v>
+        <v>784</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -5192,10 +5187,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -5232,7 +5227,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>428</v>
@@ -5255,7 +5250,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>448</v>
@@ -5278,7 +5273,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>449</v>
@@ -5301,7 +5296,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>212</v>
@@ -5324,7 +5319,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>429</v>
@@ -5370,7 +5365,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>450</v>
@@ -5402,10 +5397,10 @@
         <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5434,10 +5429,10 @@
         <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -5466,7 +5461,7 @@
         <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>451</v>
@@ -5484,7 +5479,7 @@
         <v>293</v>
       </c>
       <c r="AW86" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX86" s="6"/>
     </row>
@@ -5493,7 +5488,7 @@
         <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>452</v>
@@ -5511,7 +5506,7 @@
         <v>293</v>
       </c>
       <c r="AW87" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX87" s="6"/>
     </row>
@@ -5520,7 +5515,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>216</v>
@@ -5535,7 +5530,7 @@
         <v>293</v>
       </c>
       <c r="AW88" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX88" s="6"/>
     </row>
@@ -5567,7 +5562,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>430</v>
@@ -5590,7 +5585,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>221</v>
@@ -5613,7 +5608,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>222</v>
@@ -5645,7 +5640,7 @@
         <v>101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>316</v>
@@ -5709,7 +5704,7 @@
         <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>432</v>
@@ -5732,7 +5727,7 @@
         <v>104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>433</v>
@@ -5752,7 +5747,7 @@
         <v>105</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>226</v>
@@ -5784,7 +5779,7 @@
         <v>106</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>454</v>
@@ -5816,7 +5811,7 @@
         <v>107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>455</v>
@@ -5848,7 +5843,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>230</v>
@@ -5880,7 +5875,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>456</v>
@@ -5903,10 +5898,10 @@
         <v>110</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -5926,13 +5921,13 @@
         <v>111</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -5961,7 +5956,7 @@
         <v>112</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>234</v>
@@ -6059,14 +6054,14 @@
         <v>241</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6078,7 +6073,7 @@
         <v>243</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -6229,10 +6224,10 @@
         <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -6246,10 +6241,10 @@
         <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -6263,10 +6258,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -6334,7 +6329,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6348,10 +6343,10 @@
         <v>1122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -6383,10 +6378,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6417,7 +6412,7 @@
         <v>279</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>434</v>
@@ -6437,7 +6432,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6468,7 +6463,7 @@
         <v>282</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>301</v>
@@ -6484,7 +6479,7 @@
         <v>294</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>302</v>
@@ -6518,7 +6513,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6552,7 +6547,7 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>310</v>
@@ -6569,10 +6564,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6606,7 +6601,7 @@
         <v>320</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -6623,13 +6618,13 @@
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -6658,7 +6653,7 @@
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>321</v>
@@ -6678,7 +6673,7 @@
         <v>1139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>322</v>
@@ -6698,7 +6693,7 @@
         <v>1140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>323</v>
@@ -6718,7 +6713,7 @@
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>324</v>
@@ -6943,7 +6938,7 @@
         <v>1147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>415</v>
@@ -6960,7 +6955,7 @@
         <v>1148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>416</v>
@@ -6992,7 +6987,7 @@
         <v>2001</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>353</v>
@@ -7015,7 +7010,7 @@
         <v>2002</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>435</v>
@@ -8068,10 +8063,10 @@
         <v>3001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -8088,10 +8083,10 @@
         <v>3002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -8108,10 +8103,10 @@
         <v>3003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -8128,10 +8123,10 @@
         <v>3004</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -8143,7 +8138,7 @@
         <v>276</v>
       </c>
       <c r="AW190" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX190" s="6"/>
     </row>
@@ -8152,10 +8147,10 @@
         <v>3005</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8169,10 +8164,10 @@
         <v>3006</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E192" s="1">
         <v>0</v>
@@ -8183,15 +8178,15 @@
       <c r="AW192" s="6"/>
       <c r="AX192" s="6"/>
     </row>
-    <row r="193" spans="1:50" ht="39.75" customHeight="1">
+    <row r="193" spans="1:52" ht="39.75" customHeight="1">
       <c r="A193" s="1">
         <v>3007</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8200,78 +8195,84 @@
       <c r="AW193" s="6"/>
       <c r="AX193" s="6"/>
     </row>
-    <row r="194" spans="1:50" ht="39.75" customHeight="1">
+    <row r="194" spans="1:52" ht="39.75" customHeight="1">
       <c r="A194" s="1">
         <v>3008</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
       </c>
       <c r="AV194" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AW194" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="AX194" s="6"/>
-    </row>
-    <row r="195" spans="1:50" ht="39.75" customHeight="1">
+        <v>597</v>
+      </c>
+      <c r="AX194" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="195" spans="1:52" ht="39.75" customHeight="1">
       <c r="A195" s="1">
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
       </c>
       <c r="AV195" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="AW195" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="AW195" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="AX195" s="6"/>
-    </row>
-    <row r="196" spans="1:50" ht="39.75" customHeight="1">
+      <c r="AX195" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="196" spans="1:52" ht="39.75" customHeight="1">
       <c r="A196" s="1">
         <v>3010</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="AV196" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AW196" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="AX196" s="6"/>
-    </row>
-    <row r="197" spans="1:50" ht="39.75" customHeight="1">
+        <v>595</v>
+      </c>
+      <c r="AX196" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="197" spans="1:52" ht="39.75" customHeight="1">
       <c r="A197" s="1">
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -8280,34 +8281,44 @@
       <c r="AW197" s="6"/>
       <c r="AX197" s="6"/>
     </row>
-    <row r="198" spans="1:50" ht="39.75" customHeight="1">
+    <row r="198" spans="1:52" ht="39.75" customHeight="1">
       <c r="A198" s="1">
         <v>3012</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
       </c>
-      <c r="AV198" s="6"/>
-      <c r="AW198" s="6"/>
-      <c r="AX198" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="199" spans="1:50" ht="39.75" customHeight="1">
+      <c r="AV198" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AW198" s="1">
+        <v>3008</v>
+      </c>
+      <c r="AX198" s="1">
+        <v>3009</v>
+      </c>
+      <c r="AY198" s="1">
+        <v>3010</v>
+      </c>
+      <c r="AZ198" s="1">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="199" spans="1:52" ht="39.75" customHeight="1">
       <c r="A199" s="1">
         <v>3013</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -8334,15 +8345,15 @@
       <c r="AW199" s="6"/>
       <c r="AX199" s="6"/>
     </row>
-    <row r="200" spans="1:50" ht="39.75" customHeight="1">
+    <row r="200" spans="1:52" ht="39.75" customHeight="1">
       <c r="A200" s="1">
         <v>3014</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E200" s="1">
         <v>0</v>
@@ -8357,62 +8368,62 @@
         <v>276</v>
       </c>
       <c r="AW200" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="201" spans="1:50" ht="39.75" customHeight="1">
+        <v>783</v>
+      </c>
+      <c r="AY200" s="1">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:52" ht="39.75" customHeight="1">
       <c r="A201" s="1">
         <v>3015</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
-      <c r="O201" s="1">
-        <v>3016</v>
-      </c>
       <c r="AV201" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW201" s="6"/>
       <c r="AX201" s="6"/>
     </row>
-    <row r="202" spans="1:50" ht="39.75" customHeight="1">
+    <row r="202" spans="1:52" ht="39.75" customHeight="1">
       <c r="A202" s="1">
         <v>3016</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
       </c>
       <c r="AV202" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AW202" s="6"/>
       <c r="AX202" s="6"/>
     </row>
-    <row r="203" spans="1:50" ht="39.75" customHeight="1">
+    <row r="203" spans="1:52" ht="39.75" customHeight="1">
       <c r="A203" s="1">
         <v>3017</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8436,15 +8447,15 @@
       <c r="AW203" s="6"/>
       <c r="AX203" s="6"/>
     </row>
-    <row r="204" spans="1:50" ht="39.75" customHeight="1">
+    <row r="204" spans="1:52" ht="39.75" customHeight="1">
       <c r="A204" s="1">
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E204" s="1">
         <v>3</v>
@@ -8453,15 +8464,15 @@
       <c r="AW204" s="6"/>
       <c r="AX204" s="6"/>
     </row>
-    <row r="205" spans="1:50" ht="39.75" customHeight="1">
+    <row r="205" spans="1:52" ht="39.75" customHeight="1">
       <c r="A205" s="1">
         <v>3019</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8473,18 +8484,18 @@
       <c r="AW205" s="6"/>
       <c r="AX205" s="6"/>
     </row>
-    <row r="206" spans="1:50" ht="39.75" customHeight="1">
+    <row r="206" spans="1:52" ht="39.75" customHeight="1">
       <c r="A206" s="1">
         <v>3020</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -8501,18 +8512,18 @@
       <c r="AW206" s="6"/>
       <c r="AX206" s="6"/>
     </row>
-    <row r="207" spans="1:50" ht="39.75" customHeight="1">
+    <row r="207" spans="1:52" ht="39.75" customHeight="1">
       <c r="A207" s="1">
         <v>3021</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -8529,18 +8540,18 @@
       <c r="AW207" s="6"/>
       <c r="AX207" s="6"/>
     </row>
-    <row r="208" spans="1:50" ht="39.75" customHeight="1">
+    <row r="208" spans="1:52" ht="39.75" customHeight="1">
       <c r="A208" s="1">
         <v>3022</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -8562,13 +8573,13 @@
         <v>3023</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -8590,13 +8601,13 @@
         <v>3024</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E210" s="1">
         <v>2</v>
@@ -8618,13 +8629,13 @@
         <v>3025</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E211" s="1">
         <v>2</v>
@@ -8646,13 +8657,13 @@
         <v>3026</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E212" s="1">
         <v>2</v>
@@ -8674,10 +8685,10 @@
         <v>3027</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>204</v>
@@ -8702,10 +8713,10 @@
         <v>3028</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E214" s="1">
         <v>0</v>
@@ -8719,10 +8730,10 @@
         <v>3029</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -8736,10 +8747,10 @@
         <v>3030</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8756,10 +8767,10 @@
         <v>3031</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8773,10 +8784,10 @@
         <v>3032</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="E218" s="1">
         <v>3</v>
@@ -8790,10 +8801,10 @@
         <v>3033</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8807,10 +8818,10 @@
         <v>3034</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8824,10 +8835,10 @@
         <v>3035</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E221" s="1">
         <v>0</v>
@@ -8841,10 +8852,10 @@
         <v>3037</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E222" s="1">
         <v>1</v>
@@ -8858,10 +8869,10 @@
         <v>3039</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E223" s="1">
         <v>2</v>
@@ -8875,10 +8886,10 @@
         <v>3040</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="E224" s="1">
         <v>0</v>
@@ -8892,10 +8903,10 @@
         <v>3041</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -8909,10 +8920,10 @@
         <v>3042</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="E226" s="1">
         <v>0</v>
@@ -8926,10 +8937,10 @@
         <v>3043</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E227" s="1">
         <v>2</v>
@@ -8946,10 +8957,10 @@
         <v>3044</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E228" s="1">
         <v>0</v>
@@ -8993,10 +9004,10 @@
         <v>3045</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -9040,10 +9051,10 @@
         <v>3046</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -9087,10 +9098,10 @@
         <v>3047</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -9134,10 +9145,10 @@
         <v>3048</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E232" s="1">
         <v>0</v>
@@ -9181,10 +9192,10 @@
         <v>3049</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -9228,10 +9239,10 @@
         <v>3050</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -9275,10 +9286,10 @@
         <v>3051</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -9322,10 +9333,10 @@
         <v>3052</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
@@ -9369,10 +9380,10 @@
         <v>3053</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -9416,10 +9427,10 @@
         <v>3054</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E238" s="1">
         <v>0</v>
@@ -9463,10 +9474,10 @@
         <v>3055</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
@@ -9510,10 +9521,10 @@
         <v>3056</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E240" s="1">
         <v>0</v>
@@ -9536,10 +9547,10 @@
         <v>3057</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -9562,10 +9573,10 @@
         <v>3058</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E242" s="1">
         <v>0</v>
@@ -9588,10 +9599,10 @@
         <v>3059</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E243" s="1">
         <v>0</v>
@@ -9614,10 +9625,10 @@
         <v>3060</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E244" s="1">
         <v>0</v>
@@ -9640,10 +9651,10 @@
         <v>3061</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E245" s="1">
         <v>2</v>
@@ -9663,10 +9674,10 @@
         <v>3062</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -9690,10 +9701,10 @@
         <v>3063</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
@@ -9707,10 +9718,10 @@
         <v>3064</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -9724,10 +9735,10 @@
         <v>3065</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="E249" s="1">
         <v>2</v>
@@ -9784,16 +9795,16 @@
         <v>3035</v>
       </c>
       <c r="AF249" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG249" s="1">
         <v>3069</v>
       </c>
       <c r="AH249" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AI249" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="AI249" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="AJ249" s="6"/>
       <c r="AK249" s="6"/>
@@ -9808,10 +9819,10 @@
         <v>3066</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E250" s="1">
         <v>1</v>
@@ -9825,13 +9836,13 @@
         <v>3068</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9851,13 +9862,13 @@
         <v>3069</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9877,10 +9888,10 @@
         <v>3071</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E253" s="1">
         <v>0</v>
@@ -9888,7 +9899,7 @@
       <c r="AV253" s="6"/>
       <c r="AW253" s="6"/>
       <c r="AX253" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="254" spans="1:52" ht="39.75" customHeight="1">
@@ -9896,13 +9907,13 @@
         <v>3072</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="E254" s="1">
         <v>1</v>
@@ -9931,10 +9942,10 @@
         <v>3074</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E255" s="1">
         <v>0</v>
@@ -9948,10 +9959,10 @@
         <v>3077</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -9962,10 +9973,10 @@
         <v>3078</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -9979,10 +9990,10 @@
         <v>3079</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="E258" s="1">
         <v>1</v>
@@ -9996,10 +10007,10 @@
         <v>3080</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E259" s="1">
         <v>2</v>
@@ -10013,10 +10024,10 @@
         <v>3081</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10027,10 +10038,10 @@
         <v>3082</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -10041,10 +10052,10 @@
         <v>3083</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -10055,10 +10066,10 @@
         <v>3084</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10090,10 +10101,10 @@
         <v>3085</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10125,10 +10136,10 @@
         <v>3086</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10160,10 +10171,10 @@
         <v>3087</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10195,10 +10206,10 @@
         <v>3088</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10230,10 +10241,10 @@
         <v>3089</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10265,10 +10276,10 @@
         <v>3090</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E269" s="1">
         <v>0</v>
@@ -10300,10 +10311,10 @@
         <v>3091</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E270" s="1">
         <v>2</v>
@@ -10335,10 +10346,10 @@
         <v>3092</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10349,24 +10360,24 @@
         <v>3093</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E272" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:49" ht="39.75" customHeight="1">
+    <row r="273" spans="1:50" ht="39.75" customHeight="1">
       <c r="A273" s="1">
         <v>3094</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10375,15 +10386,15 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="274" spans="1:49" ht="39.75" customHeight="1">
+    <row r="274" spans="1:50" ht="39.75" customHeight="1">
       <c r="A274" s="1">
         <v>3095</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="E274" s="1">
         <v>2</v>
@@ -10391,21 +10402,27 @@
       <c r="AV274" s="1">
         <v>3094</v>
       </c>
-    </row>
-    <row r="275" spans="1:49" ht="39.75" customHeight="1">
+      <c r="AW274" s="1">
+        <v>3012</v>
+      </c>
+      <c r="AX274" s="1">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="275" spans="1:50" ht="39.75" customHeight="1">
       <c r="A275" s="1">
         <v>3096</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="E275" s="1">
         <v>0</v>
       </c>
-      <c r="AW275" s="1">
+      <c r="AV275" s="1">
         <v>1106</v>
       </c>
     </row>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40BB68D-67D3-F544-85F9-897BB678D5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F96935-2A72-0F44-98AE-018DEAAD9367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3272,10 +3272,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F96935-2A72-0F44-98AE-018DEAAD9367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EDBB9-3355-C543-918E-0B4BAC3FCC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="786">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1758,14 +1758,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你20岁和30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>额外运气</t>
   </si>
   <si>
@@ -2853,6 +2845,15 @@
   </si>
   <si>
     <t>苍蓝轨迹</t>
+  </si>
+  <si>
+    <t>你20岁和33岁时无事发生</t>
+  </si>
+  <si>
+    <t>AGE?[20,33]</t>
+  </si>
+  <si>
+    <t>1146</t>
   </si>
 </sst>
 </file>
@@ -3272,10 +3273,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AT230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B193" sqref="B193"/>
+      <selection pane="bottomRight" activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3303,7 +3304,7 @@
         <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>184</v>
@@ -3506,13 +3507,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>136</v>
@@ -3676,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -3756,10 +3757,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3776,7 +3777,7 @@
         <v>317</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3813,10 +3814,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3833,10 +3834,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3853,10 +3854,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3882,7 +3883,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3896,10 +3897,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3919,10 +3920,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3942,10 +3943,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3968,7 +3969,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -3982,7 +3983,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>133</v>
@@ -3999,10 +4000,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4016,7 +4017,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>134</v>
@@ -4048,7 +4049,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>190</v>
@@ -4068,10 +4069,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -4088,10 +4089,10 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -4111,7 +4112,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>138</v>
@@ -4160,7 +4161,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>141</v>
@@ -4183,7 +4184,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>142</v>
@@ -4209,7 +4210,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>159</v>
@@ -4228,7 +4229,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>143</v>
@@ -4247,7 +4248,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>162</v>
@@ -4264,16 +4265,16 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -4352,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>150</v>
@@ -4363,7 +4364,9 @@
       <c r="K35" s="1">
         <v>-10</v>
       </c>
-      <c r="AV35" s="6"/>
+      <c r="AV35" s="6" t="s">
+        <v>785</v>
+      </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
     </row>
@@ -4392,7 +4395,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>153</v>
@@ -4449,7 +4452,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>158</v>
@@ -4466,10 +4469,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4500,7 +4503,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -4519,10 +4522,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -4556,7 +4559,7 @@
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4573,7 +4576,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4601,7 +4604,7 @@
       <c r="AW48" s="6"/>
       <c r="AX48" s="6"/>
     </row>
-    <row r="49" spans="1:51" ht="39.75" customHeight="1">
+    <row r="49" spans="1:52" ht="39.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -4609,24 +4612,26 @@
         <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="AV49" s="6"/>
+      <c r="AV49" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="AW49" s="6"/>
       <c r="AX49" s="6"/>
     </row>
-    <row r="50" spans="1:51" ht="39.75" customHeight="1">
+    <row r="50" spans="1:52" ht="39.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -4643,13 +4648,16 @@
       <c r="AY50" s="10">
         <v>3095</v>
       </c>
-    </row>
-    <row r="51" spans="1:51" ht="39.75" customHeight="1">
+      <c r="AZ50" s="1">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" ht="39.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
@@ -4667,12 +4675,12 @@
       <c r="AW51" s="6"/>
       <c r="AX51" s="10"/>
     </row>
-    <row r="52" spans="1:51" ht="39.75" customHeight="1">
+    <row r="52" spans="1:52" ht="39.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
@@ -4690,15 +4698,15 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
     </row>
-    <row r="53" spans="1:51" ht="39.75" customHeight="1">
+    <row r="53" spans="1:52" ht="39.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>200</v>
@@ -4716,15 +4724,15 @@
       <c r="AW53" s="6"/>
       <c r="AX53" s="6"/>
     </row>
-    <row r="54" spans="1:51" ht="39.75" customHeight="1">
+    <row r="54" spans="1:52" ht="39.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>201</v>
@@ -4739,15 +4747,15 @@
       <c r="AW54" s="6"/>
       <c r="AX54" s="6"/>
     </row>
-    <row r="55" spans="1:51" ht="39.75" customHeight="1">
+    <row r="55" spans="1:52" ht="39.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>202</v>
@@ -4764,7 +4772,7 @@
       <c r="AW55" s="6"/>
       <c r="AX55" s="6"/>
     </row>
-    <row r="56" spans="1:51" ht="39.75" customHeight="1">
+    <row r="56" spans="1:52" ht="39.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -4787,15 +4795,15 @@
       <c r="AW56" s="6"/>
       <c r="AX56" s="6"/>
     </row>
-    <row r="57" spans="1:51" ht="39.75" customHeight="1">
+    <row r="57" spans="1:52" ht="39.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>202</v>
@@ -4812,7 +4820,7 @@
       <c r="AW57" s="6"/>
       <c r="AX57" s="6"/>
     </row>
-    <row r="58" spans="1:51" ht="39.75" customHeight="1">
+    <row r="58" spans="1:52" ht="39.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -4835,15 +4843,15 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
     </row>
-    <row r="59" spans="1:51" ht="39.75" customHeight="1">
+    <row r="59" spans="1:52" ht="39.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>204</v>
@@ -4858,7 +4866,7 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
     </row>
-    <row r="60" spans="1:51" ht="39.75" customHeight="1">
+    <row r="60" spans="1:52" ht="39.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -4881,7 +4889,7 @@
       <c r="AW60" s="6"/>
       <c r="AX60" s="6"/>
     </row>
-    <row r="61" spans="1:51" ht="39.75" customHeight="1">
+    <row r="61" spans="1:52" ht="39.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -4904,7 +4912,7 @@
       <c r="AW61" s="6"/>
       <c r="AX61" s="6"/>
     </row>
-    <row r="62" spans="1:51" ht="39.75" customHeight="1">
+    <row r="62" spans="1:52" ht="39.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -4927,15 +4935,15 @@
       <c r="AW62" s="6"/>
       <c r="AX62" s="6"/>
     </row>
-    <row r="63" spans="1:51" ht="39.75" customHeight="1">
+    <row r="63" spans="1:52" ht="39.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>315</v>
@@ -4950,7 +4958,7 @@
       <c r="AW63" s="6"/>
       <c r="AX63" s="6"/>
     </row>
-    <row r="64" spans="1:51" ht="39.75" customHeight="1">
+    <row r="64" spans="1:52" ht="39.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -4958,7 +4966,7 @@
         <v>188</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>204</v>
@@ -4998,10 +5006,10 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -5018,7 +5026,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>192</v>
@@ -5035,13 +5043,13 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -5064,7 +5072,7 @@
         <v>193</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>218</v>
@@ -5084,7 +5092,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>194</v>
@@ -5130,10 +5138,10 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>207</v>
@@ -5153,10 +5161,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -5170,10 +5178,10 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -5187,10 +5195,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -5207,7 +5215,7 @@
         <v>208</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>209</v>
@@ -5227,10 +5235,10 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>210</v>
@@ -5250,10 +5258,10 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>210</v>
@@ -5273,10 +5281,10 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>211</v>
@@ -5296,7 +5304,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>212</v>
@@ -5319,10 +5327,10 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>209</v>
@@ -5365,10 +5373,10 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>215</v>
@@ -5397,10 +5405,10 @@
         <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5429,10 +5437,10 @@
         <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -5461,10 +5469,10 @@
         <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -5479,7 +5487,7 @@
         <v>293</v>
       </c>
       <c r="AW86" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AX86" s="6"/>
     </row>
@@ -5488,10 +5496,10 @@
         <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -5506,7 +5514,7 @@
         <v>293</v>
       </c>
       <c r="AW87" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AX87" s="6"/>
     </row>
@@ -5515,7 +5523,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>216</v>
@@ -5530,7 +5538,7 @@
         <v>293</v>
       </c>
       <c r="AW88" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AX88" s="6"/>
     </row>
@@ -5542,7 +5550,7 @@
         <v>220</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>217</v>
@@ -5562,10 +5570,10 @@
         <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>217</v>
@@ -5585,7 +5593,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>221</v>
@@ -5608,7 +5616,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>222</v>
@@ -5640,7 +5648,7 @@
         <v>101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>316</v>
@@ -5675,7 +5683,7 @@
         <v>224</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>225</v>
@@ -5704,10 +5712,10 @@
         <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -5727,10 +5735,10 @@
         <v>104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -5747,7 +5755,7 @@
         <v>105</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>226</v>
@@ -5779,10 +5787,10 @@
         <v>106</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>228</v>
@@ -5811,10 +5819,10 @@
         <v>107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>229</v>
@@ -5843,7 +5851,7 @@
         <v>108</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>230</v>
@@ -5875,10 +5883,10 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -5898,10 +5906,10 @@
         <v>110</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -5921,13 +5929,13 @@
         <v>111</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -5956,7 +5964,7 @@
         <v>112</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>234</v>
@@ -6034,10 +6042,10 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>420</v>
+        <v>783</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>421</v>
+        <v>784</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -6054,14 +6062,14 @@
         <v>241</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6073,7 +6081,7 @@
         <v>243</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -6224,10 +6232,10 @@
         <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -6241,10 +6249,10 @@
         <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -6258,10 +6266,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -6329,7 +6337,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6343,10 +6351,10 @@
         <v>1122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -6378,10 +6386,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6412,10 +6420,10 @@
         <v>279</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -6432,7 +6440,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6463,7 +6471,7 @@
         <v>282</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>301</v>
@@ -6479,7 +6487,7 @@
         <v>294</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>302</v>
@@ -6513,7 +6521,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6547,7 +6555,7 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>310</v>
@@ -6564,10 +6572,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6601,7 +6609,7 @@
         <v>320</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -6618,13 +6626,13 @@
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -6653,7 +6661,7 @@
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>321</v>
@@ -6673,7 +6681,7 @@
         <v>1139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>322</v>
@@ -6693,7 +6701,7 @@
         <v>1140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>323</v>
@@ -6713,7 +6721,7 @@
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>324</v>
@@ -6929,7 +6937,9 @@
       <c r="U148" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AV148" s="6"/>
+      <c r="AV148" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AW148" s="6"/>
       <c r="AX148" s="6"/>
     </row>
@@ -6938,7 +6948,7 @@
         <v>1147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>415</v>
@@ -6955,7 +6965,7 @@
         <v>1148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>416</v>
@@ -6987,7 +6997,7 @@
         <v>2001</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>353</v>
@@ -7010,10 +7020,10 @@
         <v>2002</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E152" s="1">
         <v>2</v>
@@ -7607,7 +7617,7 @@
         <v>376</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>377</v>
@@ -7862,7 +7872,7 @@
         <v>404</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -7885,7 +7895,7 @@
         <v>405</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -7908,7 +7918,7 @@
         <v>406</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -7931,7 +7941,7 @@
         <v>407</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -7954,7 +7964,7 @@
         <v>408</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -7977,7 +7987,7 @@
         <v>409</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -8000,7 +8010,7 @@
         <v>410</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -8023,7 +8033,7 @@
         <v>411</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -8063,10 +8073,10 @@
         <v>3001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -8083,10 +8093,10 @@
         <v>3002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -8103,10 +8113,10 @@
         <v>3003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -8123,10 +8133,10 @@
         <v>3004</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -8138,7 +8148,7 @@
         <v>276</v>
       </c>
       <c r="AW190" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AX190" s="6"/>
     </row>
@@ -8147,10 +8157,10 @@
         <v>3005</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8164,10 +8174,10 @@
         <v>3006</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E192" s="1">
         <v>0</v>
@@ -8183,10 +8193,10 @@
         <v>3007</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8200,22 +8210,22 @@
         <v>3008</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
       </c>
       <c r="AV194" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="AW194" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="AW194" s="6" t="s">
-        <v>597</v>
-      </c>
       <c r="AX194" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="195" spans="1:52" ht="39.75" customHeight="1">
@@ -8223,22 +8233,22 @@
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
       </c>
       <c r="AV195" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AW195" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AX195" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="196" spans="1:52" ht="39.75" customHeight="1">
@@ -8246,22 +8256,22 @@
         <v>3010</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="AV196" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AW196" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="197" spans="1:52" ht="39.75" customHeight="1">
@@ -8269,10 +8279,10 @@
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -8286,16 +8296,16 @@
         <v>3012</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
       </c>
       <c r="AV198" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AW198" s="1">
         <v>3008</v>
@@ -8315,10 +8325,10 @@
         <v>3013</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -8350,10 +8360,10 @@
         <v>3014</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E200" s="1">
         <v>0</v>
@@ -8368,10 +8378,10 @@
         <v>276</v>
       </c>
       <c r="AW200" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
@@ -8382,16 +8392,16 @@
         <v>3015</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="AV201" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AW201" s="6"/>
       <c r="AX201" s="6"/>
@@ -8401,16 +8411,16 @@
         <v>3016</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
       </c>
       <c r="AV202" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AW202" s="6"/>
       <c r="AX202" s="6"/>
@@ -8420,10 +8430,10 @@
         <v>3017</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8452,10 +8462,10 @@
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E204" s="1">
         <v>3</v>
@@ -8469,10 +8479,10 @@
         <v>3019</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8489,13 +8499,13 @@
         <v>3020</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -8517,13 +8527,13 @@
         <v>3021</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -8545,13 +8555,13 @@
         <v>3022</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -8573,13 +8583,13 @@
         <v>3023</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -8601,13 +8611,13 @@
         <v>3024</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E210" s="1">
         <v>2</v>
@@ -8629,13 +8639,13 @@
         <v>3025</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E211" s="1">
         <v>2</v>
@@ -8657,13 +8667,13 @@
         <v>3026</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E212" s="1">
         <v>2</v>
@@ -8685,10 +8695,10 @@
         <v>3027</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>204</v>
@@ -8713,10 +8723,10 @@
         <v>3028</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E214" s="1">
         <v>0</v>
@@ -8730,10 +8740,10 @@
         <v>3029</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -8747,10 +8757,10 @@
         <v>3030</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8767,10 +8777,10 @@
         <v>3031</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8784,10 +8794,10 @@
         <v>3032</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E218" s="1">
         <v>3</v>
@@ -8801,10 +8811,10 @@
         <v>3033</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8818,10 +8828,10 @@
         <v>3034</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8835,10 +8845,10 @@
         <v>3035</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E221" s="1">
         <v>0</v>
@@ -8852,10 +8862,10 @@
         <v>3037</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E222" s="1">
         <v>1</v>
@@ -8869,10 +8879,10 @@
         <v>3039</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E223" s="1">
         <v>2</v>
@@ -8886,10 +8896,10 @@
         <v>3040</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E224" s="1">
         <v>0</v>
@@ -8903,10 +8913,10 @@
         <v>3041</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -8920,10 +8930,10 @@
         <v>3042</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E226" s="1">
         <v>0</v>
@@ -8937,10 +8947,10 @@
         <v>3043</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E227" s="1">
         <v>2</v>
@@ -8957,10 +8967,10 @@
         <v>3044</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E228" s="1">
         <v>0</v>
@@ -9004,10 +9014,10 @@
         <v>3045</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -9051,10 +9061,10 @@
         <v>3046</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -9098,10 +9108,10 @@
         <v>3047</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -9145,10 +9155,10 @@
         <v>3048</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E232" s="1">
         <v>0</v>
@@ -9192,10 +9202,10 @@
         <v>3049</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -9239,10 +9249,10 @@
         <v>3050</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -9286,10 +9296,10 @@
         <v>3051</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -9333,10 +9343,10 @@
         <v>3052</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
@@ -9380,10 +9390,10 @@
         <v>3053</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -9427,10 +9437,10 @@
         <v>3054</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E238" s="1">
         <v>0</v>
@@ -9474,10 +9484,10 @@
         <v>3055</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
@@ -9521,10 +9531,10 @@
         <v>3056</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E240" s="1">
         <v>0</v>
@@ -9547,10 +9557,10 @@
         <v>3057</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -9573,10 +9583,10 @@
         <v>3058</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E242" s="1">
         <v>0</v>
@@ -9599,10 +9609,10 @@
         <v>3059</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E243" s="1">
         <v>0</v>
@@ -9625,10 +9635,10 @@
         <v>3060</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E244" s="1">
         <v>0</v>
@@ -9651,10 +9661,10 @@
         <v>3061</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E245" s="1">
         <v>2</v>
@@ -9674,10 +9684,10 @@
         <v>3062</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -9701,10 +9711,10 @@
         <v>3063</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
@@ -9718,10 +9728,10 @@
         <v>3064</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -9735,10 +9745,10 @@
         <v>3065</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E249" s="1">
         <v>2</v>
@@ -9795,16 +9805,16 @@
         <v>3035</v>
       </c>
       <c r="AF249" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AG249" s="1">
         <v>3069</v>
       </c>
       <c r="AH249" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AI249" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AJ249" s="6"/>
       <c r="AK249" s="6"/>
@@ -9814,7 +9824,7 @@
         <v>293</v>
       </c>
       <c r="AW249" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AX249" s="6"/>
       <c r="AY249" s="6"/>
@@ -9825,10 +9835,10 @@
         <v>3066</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E250" s="1">
         <v>1</v>
@@ -9842,13 +9852,13 @@
         <v>3068</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9868,13 +9878,13 @@
         <v>3069</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9894,10 +9904,10 @@
         <v>3071</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E253" s="1">
         <v>0</v>
@@ -9905,7 +9915,7 @@
       <c r="AV253" s="6"/>
       <c r="AW253" s="6"/>
       <c r="AX253" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="254" spans="1:52" ht="39.75" customHeight="1">
@@ -9913,13 +9923,13 @@
         <v>3072</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="E254" s="1">
         <v>1</v>
@@ -9948,10 +9958,10 @@
         <v>3074</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E255" s="1">
         <v>0</v>
@@ -9965,10 +9975,10 @@
         <v>3077</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -9979,10 +9989,10 @@
         <v>3078</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -9996,10 +10006,10 @@
         <v>3079</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E258" s="1">
         <v>1</v>
@@ -10013,10 +10023,10 @@
         <v>3080</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E259" s="1">
         <v>2</v>
@@ -10030,10 +10040,10 @@
         <v>3081</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10044,10 +10054,10 @@
         <v>3082</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -10058,10 +10068,10 @@
         <v>3083</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -10072,10 +10082,10 @@
         <v>3084</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10107,10 +10117,10 @@
         <v>3085</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10142,10 +10152,10 @@
         <v>3086</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10177,10 +10187,10 @@
         <v>3087</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10212,10 +10222,10 @@
         <v>3088</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10247,10 +10257,10 @@
         <v>3089</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10282,10 +10292,10 @@
         <v>3090</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E269" s="1">
         <v>0</v>
@@ -10317,13 +10327,13 @@
         <v>3091</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="E270" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV270" s="1">
         <v>3084</v>
@@ -10352,10 +10362,10 @@
         <v>3092</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10366,10 +10376,10 @@
         <v>3093</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E272" s="1">
         <v>0</v>
@@ -10380,10 +10390,10 @@
         <v>3094</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10397,10 +10407,10 @@
         <v>3095</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E274" s="1">
         <v>2</v>
@@ -10420,10 +10430,10 @@
         <v>3096</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E275" s="1">
         <v>0</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1575CAF-34B3-D940-9261-751B2190E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E3F08-9A0C-7C43-A309-0CF4E042E3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07D32F-22A3-1447-A22C-7A52907EDFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB916D41-4AE8-5C41-913D-88D4090249B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87025471-0697-474A-89C9-04FBBA3A73AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED07F2E-72A4-474F-BD60-C6298E00EB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3455F842-3A23-D448-9371-12B5EB299C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C5D0E5-EAEF-5743-A547-61EBDD00FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2094,9 +2094,6 @@
     <t>初始属性-20，随机属性+20</t>
   </si>
   <si>
-    <t>全属性+13，免疫第一次死亡'</t>
-  </si>
-  <si>
     <t>‘正义之魔法少女’</t>
   </si>
   <si>
@@ -2869,6 +2866,9 @@
   </si>
   <si>
     <t>全属性+40，加一命</t>
+  </si>
+  <si>
+    <t>"全属性+13，免疫第一次死亡"</t>
   </si>
 </sst>
 </file>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G267" sqref="G267"/>
+      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
@@ -3319,7 +3319,7 @@
         <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>184</v>
@@ -3869,10 +3869,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -3898,7 +3898,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>459</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -3996,7 +3996,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -4027,10 +4027,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>162</v>
@@ -4292,16 +4292,16 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
@@ -4392,7 +4392,7 @@
         <v>-10</v>
       </c>
       <c r="AV35" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
@@ -4496,10 +4496,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -4530,7 +4530,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -4549,7 +4549,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>470</v>
@@ -4586,7 +4586,7 @@
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>165</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4655,10 +4655,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
@@ -4707,7 +4707,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
@@ -4730,7 +4730,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>439</v>
@@ -4756,7 +4756,7 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>440</v>
@@ -4779,7 +4779,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>441</v>
@@ -5033,7 +5033,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>505</v>
@@ -5053,7 +5053,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>192</v>
@@ -5070,10 +5070,10 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>513</v>
@@ -5165,7 +5165,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>444</v>
@@ -5188,10 +5188,10 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -5222,10 +5222,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>426</v>
@@ -5285,7 +5285,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>446</v>
@@ -5308,7 +5308,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>447</v>
@@ -5331,7 +5331,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>212</v>
@@ -5354,7 +5354,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>427</v>
@@ -5400,7 +5400,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>448</v>
@@ -5435,7 +5435,7 @@
         <v>474</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>215</v>
@@ -5467,7 +5467,7 @@
         <v>475</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>215</v>
@@ -5514,7 +5514,7 @@
         <v>293</v>
       </c>
       <c r="AW86" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AX86" s="6"/>
     </row>
@@ -5541,7 +5541,7 @@
         <v>293</v>
       </c>
       <c r="AW87" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AX87" s="6"/>
     </row>
@@ -5565,7 +5565,7 @@
         <v>293</v>
       </c>
       <c r="AW88" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AX88" s="6"/>
     </row>
@@ -5910,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>454</v>
@@ -5933,10 +5933,10 @@
         <v>110</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>232</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -6058,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="AV106" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="AW106" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="AW106" s="6" t="s">
-        <v>784</v>
       </c>
       <c r="AX106" s="6"/>
     </row>
@@ -6073,19 +6073,19 @@
         <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>772</v>
-      </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="AV107" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="AW107" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="AW107" s="6" t="s">
-        <v>784</v>
       </c>
       <c r="AX107" s="6"/>
     </row>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="AV108" s="6"/>
       <c r="AW108" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AX108" s="6"/>
     </row>
@@ -6267,10 +6267,10 @@
         <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         <v>126</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>517</v>
@@ -6301,10 +6301,10 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>1122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>490</v>
@@ -6421,10 +6421,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>282</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>301</v>
@@ -6556,7 +6556,7 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>307</v>
@@ -6602,7 +6602,7 @@
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>310</v>
@@ -6619,10 +6619,10 @@
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6673,13 +6673,13 @@
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -7004,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="AV149" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AW149" s="6"/>
       <c r="AX149" s="6"/>
@@ -8122,10 +8122,10 @@
         <v>3001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -8142,10 +8142,10 @@
         <v>3002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -8162,10 +8162,10 @@
         <v>3003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -8197,7 +8197,7 @@
         <v>276</v>
       </c>
       <c r="AW190" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AX190" s="6"/>
     </row>
@@ -8206,10 +8206,10 @@
         <v>3005</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>521</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -8259,7 +8259,7 @@
         <v>3008</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>523</v>
@@ -8268,13 +8268,13 @@
         <v>1</v>
       </c>
       <c r="AV194" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AW194" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AX194" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AY194" s="1">
         <v>3095</v>
@@ -8288,7 +8288,7 @@
         <v>3009</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>524</v>
@@ -8297,13 +8297,13 @@
         <v>1</v>
       </c>
       <c r="AV195" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="AW195" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="AW195" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="AX195" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AY195" s="1">
         <v>3095</v>
@@ -8317,22 +8317,22 @@
         <v>3010</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="AV196" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AW196" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AX196" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AY196" s="1">
         <v>3095</v>
@@ -8346,10 +8346,10 @@
         <v>3011</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -8366,13 +8366,13 @@
         <v>525</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
       </c>
       <c r="AV198" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AW198" s="1">
         <v>3008</v>
@@ -8401,7 +8401,7 @@
         <v>526</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
@@ -8451,10 +8451,10 @@
         <v>276</v>
       </c>
       <c r="AW200" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AX200" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AY200" s="1">
         <v>3004</v>
@@ -8468,13 +8468,13 @@
         <v>528</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>532</v>
+        <v>790</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="AV201" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AW201" s="1">
         <v>3095</v>
@@ -8489,13 +8489,13 @@
         <v>529</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E202" s="1">
         <v>3</v>
       </c>
       <c r="AV202" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AW202" s="1">
         <v>3095</v>
@@ -8510,7 +8510,7 @@
         <v>530</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8539,17 +8539,17 @@
         <v>3018</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
       <c r="AV204" s="6"/>
       <c r="AW204" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AX204" s="6"/>
     </row>
@@ -8558,10 +8558,10 @@
         <v>3019</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8578,13 +8578,13 @@
         <v>3020</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -8606,13 +8606,13 @@
         <v>3021</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -8634,13 +8634,13 @@
         <v>3022</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -8662,13 +8662,13 @@
         <v>3023</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -8690,13 +8690,13 @@
         <v>3024</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E210" s="1">
         <v>2</v>
@@ -8718,13 +8718,13 @@
         <v>3025</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E211" s="1">
         <v>2</v>
@@ -8746,13 +8746,13 @@
         <v>3026</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E212" s="1">
         <v>2</v>
@@ -8774,10 +8774,10 @@
         <v>3027</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>204</v>
@@ -8802,10 +8802,10 @@
         <v>3028</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E214" s="1">
         <v>0</v>
@@ -8819,10 +8819,10 @@
         <v>3029</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -8836,10 +8836,10 @@
         <v>3030</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E216" s="1">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         <v>3031</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -8873,10 +8873,10 @@
         <v>3033</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -8893,10 +8893,10 @@
         <v>3034</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
@@ -8913,10 +8913,10 @@
         <v>3035</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>3037</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -8950,10 +8950,10 @@
         <v>3039</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E222" s="1">
         <v>2</v>
@@ -8967,10 +8967,10 @@
         <v>3040</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="E223" s="1">
         <v>0</v>
@@ -8984,10 +8984,10 @@
         <v>3041</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E224" s="1">
         <v>0</v>
@@ -9001,10 +9001,10 @@
         <v>3042</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="E225" s="1">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>3043</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E226" s="1">
         <v>2</v>
@@ -9038,10 +9038,10 @@
         <v>3044</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E227" s="1">
         <v>0</v>
@@ -9085,10 +9085,10 @@
         <v>3045</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E228" s="1">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>3046</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E229" s="1">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>3047</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E230" s="1">
         <v>0</v>
@@ -9226,10 +9226,10 @@
         <v>3048</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E231" s="1">
         <v>0</v>
@@ -9273,10 +9273,10 @@
         <v>3049</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E232" s="1">
         <v>0</v>
@@ -9320,10 +9320,10 @@
         <v>3050</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E233" s="1">
         <v>0</v>
@@ -9367,10 +9367,10 @@
         <v>3051</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E234" s="1">
         <v>0</v>
@@ -9414,10 +9414,10 @@
         <v>3052</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E235" s="1">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>3053</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
@@ -9508,10 +9508,10 @@
         <v>3054</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -9555,10 +9555,10 @@
         <v>3055</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E238" s="1">
         <v>0</v>
@@ -9602,10 +9602,10 @@
         <v>3056</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E239" s="1">
         <v>0</v>
@@ -9628,10 +9628,10 @@
         <v>3057</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E240" s="1">
         <v>0</v>
@@ -9654,10 +9654,10 @@
         <v>3058</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E241" s="1">
         <v>0</v>
@@ -9680,10 +9680,10 @@
         <v>3059</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E242" s="1">
         <v>0</v>
@@ -9706,10 +9706,10 @@
         <v>3060</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E243" s="1">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>3061</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E244" s="1">
         <v>2</v>
@@ -9755,10 +9755,10 @@
         <v>3062</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E245" s="1">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>508</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -9799,10 +9799,10 @@
         <v>3064</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
@@ -9816,10 +9816,10 @@
         <v>3065</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="E248" s="1">
         <v>2</v>
@@ -9876,13 +9876,13 @@
         <v>3035</v>
       </c>
       <c r="AF248" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AG248" s="1">
         <v>3069</v>
       </c>
       <c r="AH248" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AI248" s="6"/>
       <c r="AJ248" s="6"/>
@@ -9893,7 +9893,7 @@
         <v>293</v>
       </c>
       <c r="AW248" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AX248" s="6"/>
       <c r="AY248" s="6"/>
@@ -9904,10 +9904,10 @@
         <v>3066</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E249" s="1">
         <v>1</v>
@@ -9921,13 +9921,13 @@
         <v>3068</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
@@ -9947,13 +9947,13 @@
         <v>3069</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
@@ -9973,10 +9973,10 @@
         <v>3071</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -9984,7 +9984,7 @@
       <c r="AV252" s="6"/>
       <c r="AW252" s="6"/>
       <c r="AX252" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="253" spans="1:52" ht="39.75" customHeight="1">
@@ -9992,13 +9992,13 @@
         <v>3072</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C253" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="E253" s="1">
         <v>1</v>
@@ -10027,10 +10027,10 @@
         <v>3074</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E254" s="1">
         <v>0</v>
@@ -10044,10 +10044,10 @@
         <v>3077</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E255" s="1">
         <v>1</v>
@@ -10058,10 +10058,10 @@
         <v>3078</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -10075,10 +10075,10 @@
         <v>3079</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -10092,10 +10092,10 @@
         <v>3080</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E258" s="1">
         <v>2</v>
@@ -10109,10 +10109,10 @@
         <v>3081</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E259" s="1">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>3082</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
@@ -10137,10 +10137,10 @@
         <v>3083</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
@@ -10151,10 +10151,10 @@
         <v>3084</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E262" s="1">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>3085</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E263" s="1">
         <v>0</v>
@@ -10221,10 +10221,10 @@
         <v>3086</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E264" s="1">
         <v>0</v>
@@ -10256,10 +10256,10 @@
         <v>3087</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -10291,10 +10291,10 @@
         <v>3088</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E266" s="1">
         <v>0</v>
@@ -10326,10 +10326,10 @@
         <v>3089</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E267" s="1">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>3090</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -10396,10 +10396,10 @@
         <v>3091</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="E269" s="1">
         <v>1</v>
@@ -10431,10 +10431,10 @@
         <v>3092</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E270" s="1">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>3093</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
@@ -10459,10 +10459,10 @@
         <v>3094</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="E272" s="1">
         <v>2</v>
@@ -10476,10 +10476,10 @@
         <v>3095</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="E273" s="1">
         <v>2</v>
@@ -10509,7 +10509,7 @@
         <v>306</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="274" spans="1:56" ht="39.75" customHeight="1">
@@ -10517,10 +10517,10 @@
         <v>3096</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="E274" s="1">
         <v>0</v>
@@ -10534,10 +10534,10 @@
         <v>3097</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="E275" s="1">
         <v>3</v>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C5D0E5-EAEF-5743-A547-61EBDD00FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2E57D-708D-9A42-9E47-17C5277361D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
+      <selection pane="bottomRight" activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ED96E7-9385-7043-8563-41B0B1C129B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297E9BE4-8CE5-AA4A-99B3-DB21FA2D1864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3282,10 +3282,10 @@
   <dimension ref="A1:BJ274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B112" sqref="B112"/>
+      <selection pane="bottomRight" activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B09C69-9926-1B4C-8018-7239402C0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55098D1-7D04-D442-9711-5B898A7ACC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D264" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H270" sqref="H270"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C94EBD-817F-0F40-BE4F-A827BCDF4CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9475AF92-40D9-644B-B6F1-06A21805852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3288,10 +3288,10 @@
   <dimension ref="A1:BJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
+      <selection pane="bottomRight" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.75" customHeight="1"/>
